--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Wnt5a-Ror2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Wnt5a-Ror2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -83,9 +86,6 @@
   </si>
   <si>
     <t>Ror2</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>MuSCs</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.619088000000001</v>
+        <v>0.125615</v>
       </c>
       <c r="H2">
-        <v>13.857264</v>
+        <v>0.25123</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.02647478672532295</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.01780700335556722</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -555,28 +555,28 @@
         <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.0552105</v>
+        <v>0.071358</v>
       </c>
       <c r="N2">
-        <v>0.110421</v>
+        <v>0.142716</v>
       </c>
       <c r="O2">
-        <v>0.01579120108286445</v>
+        <v>0.01919591193090569</v>
       </c>
       <c r="P2">
-        <v>0.01113815545262342</v>
+        <v>0.01411929935366186</v>
       </c>
       <c r="Q2">
-        <v>0.255022158024</v>
+        <v>0.008963635170000001</v>
       </c>
       <c r="R2">
-        <v>1.530132948144</v>
+        <v>0.03585454068</v>
       </c>
       <c r="S2">
-        <v>0.01579120108286445</v>
+        <v>0.0005082076743688106</v>
       </c>
       <c r="T2">
-        <v>0.01113815545262342</v>
+        <v>0.0002514224109689147</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.619088000000001</v>
+        <v>0.125615</v>
       </c>
       <c r="H3">
-        <v>13.857264</v>
+        <v>0.25123</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.02647478672532295</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.01780700335556722</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>7.967055</v>
       </c>
       <c r="O3">
-        <v>0.7595739188695423</v>
+        <v>0.7144019644080171</v>
       </c>
       <c r="P3">
-        <v>0.8036360573586609</v>
+        <v>0.7882033865305114</v>
       </c>
       <c r="Q3">
-        <v>12.26684271528</v>
+        <v>0.333593871275</v>
       </c>
       <c r="R3">
-        <v>110.40158443752</v>
+        <v>2.00156322765</v>
       </c>
       <c r="S3">
-        <v>0.7595739188695423</v>
+        <v>0.01891363964385401</v>
       </c>
       <c r="T3">
-        <v>0.8036360573586609</v>
+        <v>0.01403554034881826</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.619088000000001</v>
+        <v>0.125615</v>
       </c>
       <c r="H4">
-        <v>13.857264</v>
+        <v>0.25123</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.02647478672532295</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.01780700335556722</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.5198769999999999</v>
+        <v>0.9728370000000001</v>
       </c>
       <c r="N4">
-        <v>1.039754</v>
+        <v>1.945674</v>
       </c>
       <c r="O4">
-        <v>0.1486942202181889</v>
+        <v>0.2617014683024538</v>
       </c>
       <c r="P4">
-        <v>0.1048798841206565</v>
+        <v>0.1924910567184946</v>
       </c>
       <c r="Q4">
-        <v>2.401357612176</v>
+        <v>0.122202919755</v>
       </c>
       <c r="R4">
-        <v>14.408145673056</v>
+        <v>0.4888116790200001</v>
       </c>
       <c r="S4">
-        <v>0.1486942202181889</v>
+        <v>0.006928490559011331</v>
       </c>
       <c r="T4">
-        <v>0.1048798841206565</v>
+        <v>0.003427688892902914</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,309 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
       </c>
       <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0.125615</v>
+      </c>
+      <c r="H5">
+        <v>0.25123</v>
+      </c>
+      <c r="I5">
+        <v>0.02647478672532295</v>
+      </c>
+      <c r="J5">
+        <v>0.01780700335556722</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.017474</v>
+      </c>
+      <c r="N5">
+        <v>0.052422</v>
+      </c>
+      <c r="O5">
+        <v>0.004700655358623364</v>
+      </c>
+      <c r="P5">
+        <v>0.005186257397332197</v>
+      </c>
+      <c r="Q5">
+        <v>0.00219499651</v>
+      </c>
+      <c r="R5">
+        <v>0.01316997906</v>
+      </c>
+      <c r="S5">
+        <v>0.0001244488480888</v>
+      </c>
+      <c r="T5">
+        <v>9.235170287712975E-05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
         <v>3</v>
       </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
         <v>4.619088000000001</v>
       </c>
-      <c r="H5">
+      <c r="H6">
         <v>13.857264</v>
       </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
+      <c r="I6">
+        <v>0.9735252132746771</v>
+      </c>
+      <c r="J6">
+        <v>0.9821929966444328</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.5</v>
+      </c>
+      <c r="M6">
+        <v>0.071358</v>
+      </c>
+      <c r="N6">
+        <v>0.142716</v>
+      </c>
+      <c r="O6">
+        <v>0.01919591193090569</v>
+      </c>
+      <c r="P6">
+        <v>0.01411929935366186</v>
+      </c>
+      <c r="Q6">
+        <v>0.3296088815040001</v>
+      </c>
+      <c r="R6">
+        <v>1.977653289024</v>
+      </c>
+      <c r="S6">
+        <v>0.01868770425653688</v>
+      </c>
+      <c r="T6">
+        <v>0.01386787694269294</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>4.619088000000001</v>
+      </c>
+      <c r="H7">
+        <v>13.857264</v>
+      </c>
+      <c r="I7">
+        <v>0.9735252132746771</v>
+      </c>
+      <c r="J7">
+        <v>0.9821929966444328</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>2.655685</v>
+      </c>
+      <c r="N7">
+        <v>7.967055</v>
+      </c>
+      <c r="O7">
+        <v>0.7144019644080171</v>
+      </c>
+      <c r="P7">
+        <v>0.7882033865305114</v>
+      </c>
+      <c r="Q7">
+        <v>12.26684271528</v>
+      </c>
+      <c r="R7">
+        <v>110.40158443752</v>
+      </c>
+      <c r="S7">
+        <v>0.6954883247641631</v>
+      </c>
+      <c r="T7">
+        <v>0.7741678461816931</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>4.619088000000001</v>
+      </c>
+      <c r="H8">
+        <v>13.857264</v>
+      </c>
+      <c r="I8">
+        <v>0.9735252132746771</v>
+      </c>
+      <c r="J8">
+        <v>0.9821929966444328</v>
+      </c>
+      <c r="K8">
         <v>2</v>
       </c>
-      <c r="L5">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M5">
-        <v>0.26551</v>
-      </c>
-      <c r="N5">
-        <v>0.7965300000000001</v>
-      </c>
-      <c r="O5">
-        <v>0.07594065982940454</v>
-      </c>
-      <c r="P5">
-        <v>0.08034590306805893</v>
-      </c>
-      <c r="Q5">
-        <v>1.22641405488</v>
-      </c>
-      <c r="R5">
-        <v>11.03772649392</v>
-      </c>
-      <c r="S5">
-        <v>0.07594065982940454</v>
-      </c>
-      <c r="T5">
-        <v>0.08034590306805893</v>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.9728370000000001</v>
+      </c>
+      <c r="N8">
+        <v>1.945674</v>
+      </c>
+      <c r="O8">
+        <v>0.2617014683024538</v>
+      </c>
+      <c r="P8">
+        <v>0.1924910567184946</v>
+      </c>
+      <c r="Q8">
+        <v>4.493619712656001</v>
+      </c>
+      <c r="R8">
+        <v>26.961718275936</v>
+      </c>
+      <c r="S8">
+        <v>0.2547729777434425</v>
+      </c>
+      <c r="T8">
+        <v>0.1890633678255917</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>4.619088000000001</v>
+      </c>
+      <c r="H9">
+        <v>13.857264</v>
+      </c>
+      <c r="I9">
+        <v>0.9735252132746771</v>
+      </c>
+      <c r="J9">
+        <v>0.9821929966444328</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.017474</v>
+      </c>
+      <c r="N9">
+        <v>0.052422</v>
+      </c>
+      <c r="O9">
+        <v>0.004700655358623364</v>
+      </c>
+      <c r="P9">
+        <v>0.005186257397332197</v>
+      </c>
+      <c r="Q9">
+        <v>0.08071394371200001</v>
+      </c>
+      <c r="R9">
+        <v>0.7264254934080001</v>
+      </c>
+      <c r="S9">
+        <v>0.004576206510534564</v>
+      </c>
+      <c r="T9">
+        <v>0.005093905694455067</v>
       </c>
     </row>
   </sheetData>
